--- a/SVD_Files/SPI.xlsx
+++ b/SVD_Files/SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -505,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -513,30 +513,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -819,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -828,504 +849,552 @@
     <col min="1" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" customWidth="1"/>
     <col min="4" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="11" width="58.140625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="47.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="4" t="s">
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="4" t="s">
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="4" t="s">
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="4" t="s">
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="6" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="12" t="s">
         <v>44</v>
       </c>
+      <c r="K15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="11" t="s">
         <v>42</v>
       </c>
+      <c r="K18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1333,51 +1402,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="60.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1385,631 +1454,747 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="6">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="A24" s="6">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="C24" s="7"/>
+      <c r="D24" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="C25" s="7"/>
+      <c r="D25" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="A26" s="6">
         <v>2</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="7"/>
+      <c r="D27" s="6" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="6">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="A38" s="6">
         <v>0</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="A39" s="6">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="A40" s="6">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="A41" s="6">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="A46" s="6">
         <v>0</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="6">
         <v>1</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="A48" s="6">
         <v>2</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="A49" s="6">
         <v>3</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="A54" s="6">
         <v>0</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="A55" s="6">
         <v>1</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="C55" s="7"/>
+      <c r="D55" s="6" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="A56" s="6">
         <v>2</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="C56" s="7"/>
+      <c r="D56" s="6" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="A57" s="6">
         <v>3</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="C57" s="7"/>
+      <c r="D57" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+      <c r="A59" s="6"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="A62" s="6">
         <v>0</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="C62" s="7"/>
+      <c r="D62" s="6" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="A63" s="6">
         <v>1</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="C63" s="7"/>
+      <c r="D63" s="6" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="A68" s="6">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="C68" s="7"/>
+      <c r="D68" s="6" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A69" s="6">
         <v>1</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="C69" s="7"/>
+      <c r="D69" s="6" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="9" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+      <c r="A71" s="6"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="9" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SVD_Files/SPI.xlsx
+++ b/SVD_Files/SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="170">
   <si>
     <t>Addr Shift</t>
   </si>
@@ -268,9 +268,6 @@
     <t>0 - Normal, 1 - Output disabled</t>
   </si>
   <si>
-    <t>0..15</t>
-  </si>
-  <si>
     <t>DATA</t>
   </si>
   <si>
@@ -424,15 +421,9 @@
     <t>MaskValue</t>
   </si>
   <si>
-    <t>0x0000FFFF</t>
-  </si>
-  <si>
     <t>0x00000000</t>
   </si>
   <si>
-    <t>0x0000000F</t>
-  </si>
-  <si>
     <t>0x0000001F</t>
   </si>
   <si>
@@ -461,13 +452,169 @@
   </si>
   <si>
     <t>IQR Clear Register</t>
+  </si>
+  <si>
+    <t>Hi16_En</t>
+  </si>
+  <si>
+    <t>FastRxEn</t>
+  </si>
+  <si>
+    <t>1: slave fast mode 0: normal</t>
+  </si>
+  <si>
+    <t>1: Word = DSS[3:0] + 16 bit 0: normal</t>
+  </si>
+  <si>
+    <r>
+      <t>0x0000FFFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0x3FFFF</t>
+    </r>
+  </si>
+  <si>
+    <t>Color for Esila and 1923DR014</t>
+  </si>
+  <si>
+    <t>Clr_TX</t>
+  </si>
+  <si>
+    <t>FIFO_TX Clear</t>
+  </si>
+  <si>
+    <t>1: Clear</t>
+  </si>
+  <si>
+    <r>
+      <t>0x0000000F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0x1F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0..15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/31</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0xFFFF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0xFFFFFFFF</t>
+    </r>
+  </si>
+  <si>
+    <t>TBSYIM</t>
+  </si>
+  <si>
+    <t>1 - TX_ShiftReg Empty</t>
+  </si>
+  <si>
+    <t>RNEIM</t>
+  </si>
+  <si>
+    <t>TFEIM</t>
+  </si>
+  <si>
+    <t>1 - FIFO_RX not empty</t>
+  </si>
+  <si>
+    <t>1 - FIFO_TX empty</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0x0000000F </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/ 0x7F</t>
+    </r>
+  </si>
+  <si>
+    <t>TFERIS</t>
+  </si>
+  <si>
+    <t>TBSYRIS</t>
+  </si>
+  <si>
+    <t>RNERIS</t>
+  </si>
+  <si>
+    <r>
+      <t>0x0000000F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/0x7F</t>
+    </r>
+  </si>
+  <si>
+    <t>RNEMIS</t>
+  </si>
+  <si>
+    <t>TFEMIS</t>
+  </si>
+  <si>
+    <t>TBSYMIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -479,6 +626,30 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -532,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -558,6 +729,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -840,7 +1019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -1000,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1400,265 +1579,257 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="60.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="D6" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>16</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>17</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>0</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>1</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>3</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>85</v>
+    <row r="19" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>4</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,124 +1840,126 @@
     </row>
     <row r="23" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <v>0</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>1</v>
-      </c>
-      <c r="B25" s="7" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>3</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>4</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>4</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1796,17 +1969,17 @@
         <v>135</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,170 +1990,170 @@
     </row>
     <row r="37" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>0</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>0</v>
-      </c>
-      <c r="B38" s="7" t="s">
+      <c r="C43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>1</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <v>1</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="C44" s="7"/>
+      <c r="D44" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>2</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
-        <v>2</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>3</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="6" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6">
-        <v>1</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6">
-        <v>2</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <v>3</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>4</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>5</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>6</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7" t="s">
-        <v>136</v>
+        <v>162</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1991,13 +2164,13 @@
     </row>
     <row r="53" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D53" s="4"/>
     </row>
@@ -2006,11 +2179,11 @@
         <v>0</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2018,11 +2191,11 @@
         <v>1</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2030,11 +2203,11 @@
         <v>2</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2042,155 +2215,313 @@
         <v>3</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>4</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13">
+        <v>5</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>6</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="6">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
         <v>0</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6">
+      <c r="B65" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
         <v>1</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6" t="s">
+      <c r="B66" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D67" s="4"/>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>2</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>4</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="13">
+        <v>5</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="14"/>
+      <c r="D70" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>6</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71" s="14"/>
+      <c r="D71" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>0</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>1</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>0</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="7"/>
+      <c r="D82" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>1</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="7"/>
+      <c r="D83" s="6" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>1</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="9" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D85" s="9" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/SVD_Files/SPI.xlsx
+++ b/SVD_Files/SPI.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="183">
   <si>
     <t>Addr Shift</t>
   </si>
@@ -608,6 +608,45 @@
   </si>
   <si>
     <t>TBSYMIS</t>
+  </si>
+  <si>
+    <t>1986VE8</t>
+  </si>
+  <si>
+    <t>1923VK014</t>
+  </si>
+  <si>
+    <t>Esila</t>
+  </si>
+  <si>
+    <t>0x4008_9000</t>
+  </si>
+  <si>
+    <t>SSP5</t>
+  </si>
+  <si>
+    <t>SSP6</t>
+  </si>
+  <si>
+    <t>0x4009_5000</t>
+  </si>
+  <si>
+    <t>0x4008_A000</t>
+  </si>
+  <si>
+    <t>0x4009_6000</t>
+  </si>
+  <si>
+    <t>0x4009_7000</t>
+  </si>
+  <si>
+    <t>0x4009_8000</t>
+  </si>
+  <si>
+    <t>0x400B_1000</t>
+  </si>
+  <si>
+    <t>0x400B_2000</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1056,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,6 +1610,111 @@
       </c>
       <c r="K18" s="6"/>
     </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
@@ -1581,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
